--- a/biology/Zoologie/Batrachuperus/Batrachuperus.xlsx
+++ b/biology/Zoologie/Batrachuperus/Batrachuperus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Batrachuperus est un genre d'urodèles de la famille des Hynobiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Batrachuperus est un genre d'urodèles de la famille des Hynobiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre Batrachuperus, créé par Boulenger en 1878, est composé de deux étymons batrakhos βατραχος « grenouille » et upsrôa Υπςρώα « palais », pour rappeler le caractère suivant:« Dents palatines formant, entre les arrière-narines, deux groupes arqués, à convexité dirigée vers l’avant, non réunis au milieu » (Boulenger[2]).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Batrachuperus, créé par Boulenger en 1878, est composé de deux étymons batrakhos βατραχος « grenouille » et upsrôa Υπςρώα « palais », pour rappeler le caractère suivant:« Dents palatines formant, entre les arrière-narines, deux groupes arqués, à convexité dirigée vers l’avant, non réunis au milieu » (Boulenger).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les six espèces de ce genre se rencontrent en Chine et en Birmanie[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les six espèces de ce genre se rencontrent en Chine et en Birmanie.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (21 février 2014)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (21 février 2014) :
 Batrachuperus karlschmidti Liu, 1950
 Batrachuperus londongensis Liu &amp; Tian, 1978
 Batrachuperus pinchonii (David, 1872)
@@ -609,7 +627,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulenger, 1878 : Description de deux genres nouveaux de la famille des salamandrides. Bulletin de la Société Zoologique de France, vol. 3, p. 71-72 (texte intégral).</t>
         </is>
